--- a/3_2024.xlsx
+++ b/3_2024.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00&quot;zł&quot;"/>
     <numFmt numFmtId="166" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -59,8 +59,16 @@
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="calibri"/>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <name val="calibri"/>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -79,8 +87,26 @@
         <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBDBDB"/>
+        <bgColor rgb="00DBDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD966"/>
+        <bgColor rgb="00FFD966"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,6 +128,18 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -113,7 +151,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -159,6 +197,18 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -193,6 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -211,6 +262,7 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -226,18 +278,42 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -247,6 +323,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -611,1016 +689,858 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="23">
-      <c r="A1" s="24" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="27">
+      <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Token</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>Nazwisko</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="28" t="inlineStr">
         <is>
           <t>Stawka</t>
         </is>
       </c>
-      <c r="D1" s="24" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>Godziny</t>
         </is>
       </c>
-      <c r="E1" s="24" t="inlineStr">
+      <c r="E1" s="28" t="inlineStr">
         <is>
           <t>Zaliczka</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>Ubezpieczenie</t>
         </is>
       </c>
-      <c r="G1" s="24" t="inlineStr">
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Wypłata</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="H1" s="28" t="inlineStr">
         <is>
           <t>Urlop</t>
         </is>
       </c>
-      <c r="I1" s="24" t="inlineStr">
+      <c r="I1" s="28" t="inlineStr">
         <is>
           <t>Pracuje</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
+      <c r="J1" s="28" t="inlineStr">
         <is>
           <t>Pracownicy</t>
         </is>
       </c>
-      <c r="L1" s="25" t="inlineStr">
+      <c r="L1" s="29" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="M1" s="26" t="inlineStr">
+      <c r="M1" s="30" t="inlineStr">
         <is>
           <t>marcin0</t>
         </is>
       </c>
-      <c r="N1" s="26" t="inlineStr">
+      <c r="N1" s="30" t="inlineStr">
         <is>
           <t>marcin1</t>
         </is>
       </c>
-      <c r="O1" s="26" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>marcin2</t>
         </is>
       </c>
-      <c r="P1" s="26" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>marcin3</t>
         </is>
       </c>
-      <c r="Q1" s="26" t="inlineStr">
-        <is>
-          <t>marcin5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="23">
-      <c r="A2" s="27" t="inlineStr">
+    </row>
+    <row r="2" ht="15" customHeight="1" s="27">
+      <c r="A2" s="32" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="B2" s="27" t="inlineStr">
+      <c r="B2" s="32" t="inlineStr">
         <is>
           <t>marcin0</t>
         </is>
       </c>
-      <c r="C2" s="27" t="n">
+      <c r="C2" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="33">
         <f>SUM(M2:M32)</f>
         <v/>
       </c>
-      <c r="E2" s="29" t="n"/>
-      <c r="F2" s="29" t="n"/>
-      <c r="G2" s="30">
+      <c r="E2" s="34" t="n"/>
+      <c r="F2" s="34" t="n"/>
+      <c r="G2" s="35">
         <f>((D2*24)*C2)-E2-F2</f>
         <v/>
       </c>
-      <c r="H2" s="27" t="n"/>
-      <c r="I2" s="27" t="inlineStr">
+      <c r="H2" s="32" t="n"/>
+      <c r="I2" s="32" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J2" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="L2" s="31" t="n">
+      <c r="J2" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" s="36" t="n">
         <v>45352</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="37">
         <f>Godziny!C2-Godziny!B2</f>
         <v/>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="37">
         <f>Godziny!E2-Godziny!D2</f>
         <v/>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="37">
         <f>Godziny!G2-Godziny!F2</f>
         <v/>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="38">
         <f>Godziny!I2-Godziny!H2</f>
         <v/>
       </c>
-      <c r="Q2" s="32">
-        <f>Godziny!K2-Godziny!J2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="23">
-      <c r="A3" s="24" t="inlineStr">
+    </row>
+    <row r="3" ht="15" customHeight="1" s="27">
+      <c r="A3" s="28" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="B3" s="24" t="inlineStr">
+      <c r="B3" s="28" t="inlineStr">
         <is>
           <t>marcin1</t>
         </is>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="28" t="n">
         <v>21</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="39">
         <f>SUM(N2:N32)</f>
         <v/>
       </c>
-      <c r="E3" s="34" t="n"/>
-      <c r="F3" s="34" t="n"/>
-      <c r="G3" s="35">
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="41">
         <f>((D3*24)*C3)-E3-F3</f>
         <v/>
       </c>
-      <c r="H3" s="24" t="n"/>
-      <c r="I3" s="24" t="inlineStr">
+      <c r="H3" s="28" t="n"/>
+      <c r="I3" s="28" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="L3" s="36" t="n">
+      <c r="L3" s="42" t="n">
         <v>45353</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="43">
         <f>Godziny!C3-Godziny!B3</f>
         <v/>
       </c>
-      <c r="N3" s="37">
+      <c r="N3" s="43">
         <f>Godziny!E3-Godziny!D3</f>
         <v/>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="43">
         <f>Godziny!G3-Godziny!F3</f>
         <v/>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="44">
         <f>Godziny!I3-Godziny!H3</f>
         <v/>
       </c>
-      <c r="Q3" s="37">
-        <f>Godziny!K3-Godziny!J3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="23">
-      <c r="A4" s="27" t="inlineStr">
+    </row>
+    <row r="4" ht="15" customHeight="1" s="27">
+      <c r="A4" s="45" t="inlineStr">
         <is>
           <t>t3</t>
         </is>
       </c>
-      <c r="B4" s="27" t="inlineStr">
+      <c r="B4" s="45" t="inlineStr">
         <is>
           <t>marcin2</t>
         </is>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="45" t="n">
         <v>22</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="46">
         <f>SUM(O2:O32)</f>
         <v/>
       </c>
-      <c r="E4" s="29" t="n"/>
-      <c r="F4" s="29" t="n"/>
-      <c r="G4" s="30">
+      <c r="E4" s="47" t="n"/>
+      <c r="F4" s="47" t="n"/>
+      <c r="G4" s="48">
         <f>((D4*24)*C4)-E4-F4</f>
         <v/>
       </c>
-      <c r="H4" s="27" t="n"/>
-      <c r="I4" s="27" t="inlineStr">
+      <c r="H4" s="45" t="n"/>
+      <c r="I4" s="45" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n">
+      <c r="L4" s="36" t="n">
         <v>45354</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="43">
         <f>Godziny!C4-Godziny!B4</f>
         <v/>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="43">
         <f>Godziny!E4-Godziny!D4</f>
         <v/>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="43">
         <f>Godziny!G4-Godziny!F4</f>
         <v/>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="44">
         <f>Godziny!I4-Godziny!H4</f>
         <v/>
       </c>
-      <c r="Q4" s="37">
-        <f>Godziny!K4-Godziny!J4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="23">
-      <c r="A5" s="24" t="inlineStr">
+    </row>
+    <row r="5" ht="15" customHeight="1" s="27">
+      <c r="A5" s="49" t="inlineStr">
         <is>
           <t>t4</t>
         </is>
       </c>
-      <c r="B5" s="24" t="inlineStr">
+      <c r="B5" s="49" t="inlineStr">
         <is>
           <t>marcin3</t>
         </is>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="49" t="n">
         <v>23</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="50">
         <f>SUM(P2:P32)</f>
         <v/>
       </c>
-      <c r="E5" s="34" t="n"/>
-      <c r="F5" s="34" t="n"/>
-      <c r="G5" s="35">
+      <c r="E5" s="51" t="n"/>
+      <c r="F5" s="51" t="n"/>
+      <c r="G5" s="52">
         <f>((D5*24)*C5)-E5-F5</f>
         <v/>
       </c>
-      <c r="H5" s="24" t="n"/>
-      <c r="I5" s="24" t="inlineStr">
+      <c r="H5" s="53" t="n"/>
+      <c r="I5" s="49" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="L5" s="36" t="n">
+      <c r="L5" s="42" t="n">
         <v>45355</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="54">
         <f>Godziny!C5-Godziny!B5</f>
         <v/>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="54">
         <f>Godziny!E5-Godziny!D5</f>
         <v/>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="54">
         <f>Godziny!G5-Godziny!F5</f>
         <v/>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="55">
         <f>Godziny!I5-Godziny!H5</f>
         <v/>
       </c>
-      <c r="Q5" s="38">
-        <f>Godziny!K5-Godziny!J5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="23">
-      <c r="A6" s="27" t="inlineStr">
-        <is>
-          <t>t5</t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>marcin5</t>
-        </is>
-      </c>
-      <c r="C6" s="27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" s="28">
-        <f>SUM(Q2:Q32)</f>
-        <v/>
-      </c>
-      <c r="E6" s="29" t="n"/>
-      <c r="F6" s="29" t="n"/>
-      <c r="G6" s="30">
-        <f>((D6*24)*C6)-E6-F6</f>
-        <v/>
-      </c>
-      <c r="H6" s="27" t="n"/>
-      <c r="I6" s="27" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
-      <c r="L6" s="31" t="n">
+    </row>
+    <row r="6" ht="15" customHeight="1" s="27">
+      <c r="L6" s="36" t="n">
         <v>45356</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="37">
         <f>Godziny!C6-Godziny!B6</f>
         <v/>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="37">
         <f>Godziny!E6-Godziny!D6</f>
         <v/>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="37">
         <f>Godziny!G6-Godziny!F6</f>
         <v/>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="38">
         <f>Godziny!I6-Godziny!H6</f>
         <v/>
       </c>
-      <c r="Q6" s="32">
-        <f>Godziny!K6-Godziny!J6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="23">
-      <c r="L7" s="36" t="n">
+    </row>
+    <row r="7" ht="15" customHeight="1" s="27">
+      <c r="L7" s="42" t="n">
         <v>45357</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="54">
         <f>Godziny!C7-Godziny!B7</f>
         <v/>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="54">
         <f>Godziny!E7-Godziny!D7</f>
         <v/>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="54">
         <f>Godziny!G7-Godziny!F7</f>
         <v/>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="55">
         <f>Godziny!I7-Godziny!H7</f>
         <v/>
       </c>
-      <c r="Q7" s="38">
-        <f>Godziny!K7-Godziny!J7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="23">
-      <c r="L8" s="31" t="n">
+    </row>
+    <row r="8" ht="15" customHeight="1" s="27">
+      <c r="L8" s="36" t="n">
         <v>45358</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="37">
         <f>Godziny!C8-Godziny!B8</f>
         <v/>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="37">
         <f>Godziny!E8-Godziny!D8</f>
         <v/>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="37">
         <f>Godziny!G8-Godziny!F8</f>
         <v/>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="38">
         <f>Godziny!I8-Godziny!H8</f>
         <v/>
       </c>
-      <c r="Q8" s="32">
-        <f>Godziny!K8-Godziny!J8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="23">
-      <c r="L9" s="36" t="n">
+    </row>
+    <row r="9" ht="15" customHeight="1" s="27">
+      <c r="L9" s="42" t="n">
         <v>45359</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="54">
         <f>Godziny!C9-Godziny!B9</f>
         <v/>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="54">
         <f>Godziny!E9-Godziny!D9</f>
         <v/>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="54">
         <f>Godziny!G9-Godziny!F9</f>
         <v/>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="55">
         <f>Godziny!I9-Godziny!H9</f>
         <v/>
       </c>
-      <c r="Q9" s="38">
-        <f>Godziny!K9-Godziny!J9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="23">
-      <c r="L10" s="31" t="n">
+    </row>
+    <row r="10" ht="15" customHeight="1" s="27">
+      <c r="L10" s="36" t="n">
         <v>45360</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="43">
         <f>Godziny!C10-Godziny!B10</f>
         <v/>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="43">
         <f>Godziny!E10-Godziny!D10</f>
         <v/>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="43">
         <f>Godziny!G10-Godziny!F10</f>
         <v/>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="44">
         <f>Godziny!I10-Godziny!H10</f>
         <v/>
       </c>
-      <c r="Q10" s="37">
-        <f>Godziny!K10-Godziny!J10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="23">
-      <c r="L11" s="36" t="n">
+    </row>
+    <row r="11" ht="15" customHeight="1" s="27">
+      <c r="L11" s="42" t="n">
         <v>45361</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="43">
         <f>Godziny!C11-Godziny!B11</f>
         <v/>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="43">
         <f>Godziny!E11-Godziny!D11</f>
         <v/>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="43">
         <f>Godziny!G11-Godziny!F11</f>
         <v/>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="44">
         <f>Godziny!I11-Godziny!H11</f>
         <v/>
       </c>
-      <c r="Q11" s="37">
-        <f>Godziny!K11-Godziny!J11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="23">
-      <c r="L12" s="31" t="n">
+    </row>
+    <row r="12" ht="15" customHeight="1" s="27">
+      <c r="L12" s="36" t="n">
         <v>45362</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="37">
         <f>Godziny!C12-Godziny!B12</f>
         <v/>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="37">
         <f>Godziny!E12-Godziny!D12</f>
         <v/>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="37">
         <f>Godziny!G12-Godziny!F12</f>
         <v/>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="38">
         <f>Godziny!I12-Godziny!H12</f>
         <v/>
       </c>
-      <c r="Q12" s="32">
-        <f>Godziny!K12-Godziny!J12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="23">
-      <c r="L13" s="36" t="n">
+    </row>
+    <row r="13" ht="15" customHeight="1" s="27">
+      <c r="L13" s="42" t="n">
         <v>45363</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="54">
         <f>Godziny!C13-Godziny!B13</f>
         <v/>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="54">
         <f>Godziny!E13-Godziny!D13</f>
         <v/>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="54">
         <f>Godziny!G13-Godziny!F13</f>
         <v/>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="55">
         <f>Godziny!I13-Godziny!H13</f>
         <v/>
       </c>
-      <c r="Q13" s="38">
-        <f>Godziny!K13-Godziny!J13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="23">
-      <c r="L14" s="31" t="n">
+    </row>
+    <row r="14" ht="15" customHeight="1" s="27">
+      <c r="L14" s="36" t="n">
         <v>45364</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="37">
         <f>Godziny!C14-Godziny!B14</f>
         <v/>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="37">
         <f>Godziny!E14-Godziny!D14</f>
         <v/>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="37">
         <f>Godziny!G14-Godziny!F14</f>
         <v/>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="38">
         <f>Godziny!I14-Godziny!H14</f>
         <v/>
       </c>
-      <c r="Q14" s="32">
-        <f>Godziny!K14-Godziny!J14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="23">
-      <c r="L15" s="36" t="n">
+    </row>
+    <row r="15" ht="15" customHeight="1" s="27">
+      <c r="L15" s="42" t="n">
         <v>45365</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="54">
         <f>Godziny!C15-Godziny!B15</f>
         <v/>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="54">
         <f>Godziny!E15-Godziny!D15</f>
         <v/>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="54">
         <f>Godziny!G15-Godziny!F15</f>
         <v/>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="55">
         <f>Godziny!I15-Godziny!H15</f>
         <v/>
       </c>
-      <c r="Q15" s="38">
-        <f>Godziny!K15-Godziny!J15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="23">
-      <c r="L16" s="31" t="n">
+    </row>
+    <row r="16" ht="15" customHeight="1" s="27">
+      <c r="L16" s="36" t="n">
         <v>45366</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="37">
         <f>Godziny!C16-Godziny!B16</f>
         <v/>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="37">
         <f>Godziny!E16-Godziny!D16</f>
         <v/>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="37">
         <f>Godziny!G16-Godziny!F16</f>
         <v/>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="38">
         <f>Godziny!I16-Godziny!H16</f>
         <v/>
       </c>
-      <c r="Q16" s="32">
-        <f>Godziny!K16-Godziny!J16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="23">
-      <c r="L17" s="36" t="n">
+    </row>
+    <row r="17" ht="15" customHeight="1" s="27">
+      <c r="L17" s="42" t="n">
         <v>45367</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="43">
         <f>Godziny!C17-Godziny!B17</f>
         <v/>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="43">
         <f>Godziny!E17-Godziny!D17</f>
         <v/>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="43">
         <f>Godziny!G17-Godziny!F17</f>
         <v/>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="44">
         <f>Godziny!I17-Godziny!H17</f>
         <v/>
       </c>
-      <c r="Q17" s="37">
-        <f>Godziny!K17-Godziny!J17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="23">
-      <c r="L18" s="31" t="n">
+    </row>
+    <row r="18" ht="15" customHeight="1" s="27">
+      <c r="L18" s="36" t="n">
         <v>45368</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="43">
         <f>Godziny!C18-Godziny!B18</f>
         <v/>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="43">
         <f>Godziny!E18-Godziny!D18</f>
         <v/>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="43">
         <f>Godziny!G18-Godziny!F18</f>
         <v/>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="44">
         <f>Godziny!I18-Godziny!H18</f>
         <v/>
       </c>
-      <c r="Q18" s="37">
-        <f>Godziny!K18-Godziny!J18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="23">
-      <c r="L19" s="36" t="n">
+    </row>
+    <row r="19" ht="15" customHeight="1" s="27">
+      <c r="L19" s="42" t="n">
         <v>45369</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="54">
         <f>Godziny!C19-Godziny!B19</f>
         <v/>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="54">
         <f>Godziny!E19-Godziny!D19</f>
         <v/>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="54">
         <f>Godziny!G19-Godziny!F19</f>
         <v/>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="55">
         <f>Godziny!I19-Godziny!H19</f>
         <v/>
       </c>
-      <c r="Q19" s="38">
-        <f>Godziny!K19-Godziny!J19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="23">
-      <c r="L20" s="31" t="n">
+    </row>
+    <row r="20" ht="15" customHeight="1" s="27">
+      <c r="L20" s="36" t="n">
         <v>45370</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="37">
         <f>Godziny!C20-Godziny!B20</f>
         <v/>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="37">
         <f>Godziny!E20-Godziny!D20</f>
         <v/>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="37">
         <f>Godziny!G20-Godziny!F20</f>
         <v/>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="38">
         <f>Godziny!I20-Godziny!H20</f>
         <v/>
       </c>
-      <c r="Q20" s="32">
-        <f>Godziny!K20-Godziny!J20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="23">
-      <c r="L21" s="36" t="n">
+    </row>
+    <row r="21" ht="15" customHeight="1" s="27">
+      <c r="L21" s="42" t="n">
         <v>45371</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="54">
         <f>Godziny!C21-Godziny!B21</f>
         <v/>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="54">
         <f>Godziny!E21-Godziny!D21</f>
         <v/>
       </c>
-      <c r="O21" s="38">
+      <c r="O21" s="54">
         <f>Godziny!G21-Godziny!F21</f>
         <v/>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="55">
         <f>Godziny!I21-Godziny!H21</f>
         <v/>
       </c>
-      <c r="Q21" s="38">
-        <f>Godziny!K21-Godziny!J21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="23">
-      <c r="L22" s="31" t="n">
+    </row>
+    <row r="22" ht="15" customHeight="1" s="27">
+      <c r="L22" s="36" t="n">
         <v>45372</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="37">
         <f>Godziny!C22-Godziny!B22</f>
         <v/>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="37">
         <f>Godziny!E22-Godziny!D22</f>
         <v/>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="37">
         <f>Godziny!G22-Godziny!F22</f>
         <v/>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="38">
         <f>Godziny!I22-Godziny!H22</f>
         <v/>
       </c>
-      <c r="Q22" s="32">
-        <f>Godziny!K22-Godziny!J22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="23">
-      <c r="L23" s="36" t="n">
+    </row>
+    <row r="23" ht="15" customHeight="1" s="27">
+      <c r="L23" s="42" t="n">
         <v>45373</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="54">
         <f>Godziny!C23-Godziny!B23</f>
         <v/>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="54">
         <f>Godziny!E23-Godziny!D23</f>
         <v/>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="54">
         <f>Godziny!G23-Godziny!F23</f>
         <v/>
       </c>
-      <c r="P23" s="38">
+      <c r="P23" s="55">
         <f>Godziny!I23-Godziny!H23</f>
         <v/>
       </c>
-      <c r="Q23" s="38">
-        <f>Godziny!K23-Godziny!J23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="23">
-      <c r="L24" s="31" t="n">
+    </row>
+    <row r="24" ht="15" customHeight="1" s="27">
+      <c r="L24" s="36" t="n">
         <v>45374</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="43">
         <f>Godziny!C24-Godziny!B24</f>
         <v/>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="43">
         <f>Godziny!E24-Godziny!D24</f>
         <v/>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="43">
         <f>Godziny!G24-Godziny!F24</f>
         <v/>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="44">
         <f>Godziny!I24-Godziny!H24</f>
         <v/>
       </c>
-      <c r="Q24" s="37">
-        <f>Godziny!K24-Godziny!J24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="23">
-      <c r="L25" s="36" t="n">
+    </row>
+    <row r="25" ht="15" customHeight="1" s="27">
+      <c r="L25" s="42" t="n">
         <v>45375</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="43">
         <f>Godziny!C25-Godziny!B25</f>
         <v/>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="43">
         <f>Godziny!E25-Godziny!D25</f>
         <v/>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="43">
         <f>Godziny!G25-Godziny!F25</f>
         <v/>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="44">
         <f>Godziny!I25-Godziny!H25</f>
         <v/>
       </c>
-      <c r="Q25" s="37">
-        <f>Godziny!K25-Godziny!J25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="23">
-      <c r="L26" s="31" t="n">
+    </row>
+    <row r="26" ht="15" customHeight="1" s="27">
+      <c r="L26" s="36" t="n">
         <v>45376</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="37">
         <f>Godziny!C26-Godziny!B26</f>
         <v/>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="37">
         <f>Godziny!E26-Godziny!D26</f>
         <v/>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="37">
         <f>Godziny!G26-Godziny!F26</f>
         <v/>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="38">
         <f>Godziny!I26-Godziny!H26</f>
         <v/>
       </c>
-      <c r="Q26" s="32">
-        <f>Godziny!K26-Godziny!J26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="23">
-      <c r="L27" s="36" t="n">
+    </row>
+    <row r="27" ht="15" customHeight="1" s="27">
+      <c r="L27" s="42" t="n">
         <v>45377</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="54">
         <f>Godziny!C27-Godziny!B27</f>
         <v/>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="54">
         <f>Godziny!E27-Godziny!D27</f>
         <v/>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="54">
         <f>Godziny!G27-Godziny!F27</f>
         <v/>
       </c>
-      <c r="P27" s="38">
+      <c r="P27" s="55">
         <f>Godziny!I27-Godziny!H27</f>
         <v/>
       </c>
-      <c r="Q27" s="38">
-        <f>Godziny!K27-Godziny!J27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="23">
-      <c r="L28" s="31" t="n">
+    </row>
+    <row r="28" ht="15" customHeight="1" s="27">
+      <c r="L28" s="36" t="n">
         <v>45378</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="37">
         <f>Godziny!C28-Godziny!B28</f>
         <v/>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="37">
         <f>Godziny!E28-Godziny!D28</f>
         <v/>
       </c>
-      <c r="O28" s="32">
+      <c r="O28" s="37">
         <f>Godziny!G28-Godziny!F28</f>
         <v/>
       </c>
-      <c r="P28" s="32">
+      <c r="P28" s="38">
         <f>Godziny!I28-Godziny!H28</f>
         <v/>
       </c>
-      <c r="Q28" s="32">
-        <f>Godziny!K28-Godziny!J28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="23">
-      <c r="L29" s="36" t="n">
+    </row>
+    <row r="29" ht="15" customHeight="1" s="27">
+      <c r="L29" s="42" t="n">
         <v>45379</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="54">
         <f>Godziny!C29-Godziny!B29</f>
         <v/>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="54">
         <f>Godziny!E29-Godziny!D29</f>
         <v/>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="54">
         <f>Godziny!G29-Godziny!F29</f>
         <v/>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="55">
         <f>Godziny!I29-Godziny!H29</f>
         <v/>
       </c>
-      <c r="Q29" s="38">
-        <f>Godziny!K29-Godziny!J29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="23">
-      <c r="L30" s="31" t="n">
+    </row>
+    <row r="30" ht="15" customHeight="1" s="27">
+      <c r="L30" s="36" t="n">
         <v>45380</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="37">
         <f>Godziny!C30-Godziny!B30</f>
         <v/>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="37">
         <f>Godziny!E30-Godziny!D30</f>
         <v/>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="37">
         <f>Godziny!G30-Godziny!F30</f>
         <v/>
       </c>
-      <c r="P30" s="32">
+      <c r="P30" s="38">
         <f>Godziny!I30-Godziny!H30</f>
         <v/>
       </c>
-      <c r="Q30" s="32">
-        <f>Godziny!K30-Godziny!J30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="23">
-      <c r="L31" s="36" t="n">
+    </row>
+    <row r="31" ht="15" customHeight="1" s="27">
+      <c r="L31" s="42" t="n">
         <v>45381</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="43">
         <f>Godziny!C31-Godziny!B31</f>
         <v/>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="43">
         <f>Godziny!E31-Godziny!D31</f>
         <v/>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="43">
         <f>Godziny!G31-Godziny!F31</f>
         <v/>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="44">
         <f>Godziny!I31-Godziny!H31</f>
         <v/>
       </c>
-      <c r="Q31" s="37">
-        <f>Godziny!K31-Godziny!J31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="23">
-      <c r="L32" s="31" t="n">
+    </row>
+    <row r="32" ht="15" customHeight="1" s="27">
+      <c r="L32" s="36" t="n">
         <v>45382</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="43">
         <f>Godziny!C32-Godziny!B32</f>
         <v/>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="43">
         <f>Godziny!E32-Godziny!D32</f>
         <v/>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="43">
         <f>Godziny!G32-Godziny!F32</f>
         <v/>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="44">
         <f>Godziny!I32-Godziny!H32</f>
-        <v/>
-      </c>
-      <c r="Q32" s="37">
-        <f>Godziny!K32-Godziny!J32</f>
         <v/>
       </c>
     </row>
@@ -1637,7 +1557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1645,523 +1565,451 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="23">
-      <c r="A1" s="39" t="n"/>
-      <c r="B1" s="24" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="27">
+      <c r="A1" s="56" t="n"/>
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>marcin0</t>
         </is>
       </c>
-      <c r="C1" s="39" t="inlineStr">
+      <c r="C1" s="56" t="inlineStr">
         <is>
           <t>t1</t>
         </is>
       </c>
-      <c r="D1" s="24" t="inlineStr">
+      <c r="D1" s="28" t="inlineStr">
         <is>
           <t>marcin1</t>
         </is>
       </c>
-      <c r="E1" s="39" t="inlineStr">
+      <c r="E1" s="56" t="inlineStr">
         <is>
           <t>t2</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="F1" s="28" t="inlineStr">
         <is>
           <t>marcin2</t>
         </is>
       </c>
-      <c r="G1" s="39" t="inlineStr">
+      <c r="G1" s="56" t="inlineStr">
         <is>
           <t>t3</t>
         </is>
       </c>
-      <c r="H1" s="24" t="inlineStr">
+      <c r="H1" s="53" t="inlineStr">
         <is>
           <t>marcin3</t>
         </is>
       </c>
-      <c r="I1" s="39" t="inlineStr">
+      <c r="I1" s="57" t="inlineStr">
         <is>
           <t>t4</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
-        <is>
-          <t>marcin5</t>
-        </is>
-      </c>
-      <c r="K1" s="39" t="inlineStr">
-        <is>
-          <t>t5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="23">
-      <c r="A2" s="40" t="n">
+    </row>
+    <row r="2" ht="15" customHeight="1" s="27">
+      <c r="A2" s="58" t="n">
         <v>45352</v>
       </c>
-      <c r="B2" s="27" t="n"/>
-      <c r="C2" s="41" t="n"/>
-      <c r="D2" s="27" t="n"/>
-      <c r="E2" s="41" t="n"/>
-      <c r="F2" s="27" t="n"/>
-      <c r="G2" s="41" t="n"/>
-      <c r="H2" s="27" t="n"/>
-      <c r="I2" s="41" t="n"/>
-      <c r="J2" s="27" t="n"/>
-      <c r="K2" s="41" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="23">
-      <c r="A3" s="42" t="n">
+      <c r="B2" s="32" t="n"/>
+      <c r="C2" s="59" t="n"/>
+      <c r="D2" s="32" t="n"/>
+      <c r="E2" s="59" t="n"/>
+      <c r="F2" s="32" t="n"/>
+      <c r="G2" s="59" t="n"/>
+      <c r="H2" s="60" t="n"/>
+      <c r="I2" s="61" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="27">
+      <c r="A3" s="62" t="n">
         <v>45353</v>
       </c>
-      <c r="B3" s="43" t="n"/>
-      <c r="C3" s="44" t="n"/>
-      <c r="D3" s="43" t="n"/>
-      <c r="E3" s="44" t="n"/>
-      <c r="F3" s="43" t="n"/>
-      <c r="G3" s="44" t="n"/>
-      <c r="H3" s="43" t="n"/>
-      <c r="I3" s="44" t="n"/>
-      <c r="J3" s="43" t="n"/>
-      <c r="K3" s="44" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="23">
-      <c r="A4" s="42" t="n">
+      <c r="B3" s="63" t="n"/>
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="63" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="65" t="n"/>
+      <c r="I3" s="66" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="27">
+      <c r="A4" s="62" t="n">
         <v>45354</v>
       </c>
-      <c r="B4" s="43" t="n"/>
-      <c r="C4" s="44" t="n"/>
-      <c r="D4" s="43" t="n"/>
-      <c r="E4" s="44" t="n"/>
-      <c r="F4" s="43" t="n"/>
-      <c r="G4" s="44" t="n"/>
-      <c r="H4" s="43" t="n"/>
-      <c r="I4" s="44" t="n"/>
-      <c r="J4" s="43" t="n"/>
-      <c r="K4" s="44" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="23">
-      <c r="A5" s="45" t="n">
+      <c r="B4" s="63" t="n"/>
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="63" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="63" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="65" t="n"/>
+      <c r="I4" s="66" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="27">
+      <c r="A5" s="67" t="n">
         <v>45355</v>
       </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="39" t="n"/>
-      <c r="D5" s="24" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="24" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="24" t="n"/>
-      <c r="K5" s="39" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="23">
-      <c r="A6" s="40" t="n">
+      <c r="B5" s="28" t="n"/>
+      <c r="C5" s="56" t="n"/>
+      <c r="D5" s="28" t="n"/>
+      <c r="E5" s="56" t="n"/>
+      <c r="F5" s="28" t="n"/>
+      <c r="G5" s="56" t="n"/>
+      <c r="H5" s="53" t="n"/>
+      <c r="I5" s="57" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="27">
+      <c r="A6" s="58" t="n">
         <v>45356</v>
       </c>
-      <c r="B6" s="27" t="n"/>
-      <c r="C6" s="41" t="n"/>
-      <c r="D6" s="27" t="n"/>
-      <c r="E6" s="41" t="n"/>
-      <c r="F6" s="27" t="n"/>
-      <c r="G6" s="41" t="n"/>
-      <c r="H6" s="27" t="n"/>
-      <c r="I6" s="41" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="41" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="23">
-      <c r="A7" s="45" t="n">
+      <c r="B6" s="32" t="n"/>
+      <c r="C6" s="59" t="n"/>
+      <c r="D6" s="32" t="n"/>
+      <c r="E6" s="59" t="n"/>
+      <c r="F6" s="32" t="n"/>
+      <c r="G6" s="59" t="n"/>
+      <c r="H6" s="60" t="n"/>
+      <c r="I6" s="61" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" s="27">
+      <c r="A7" s="67" t="n">
         <v>45357</v>
       </c>
-      <c r="B7" s="24" t="n"/>
-      <c r="C7" s="39" t="n"/>
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="39" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="39" t="n"/>
-      <c r="H7" s="24" t="n"/>
-      <c r="I7" s="39" t="n"/>
-      <c r="J7" s="24" t="n"/>
-      <c r="K7" s="39" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="23">
-      <c r="A8" s="40" t="n">
+      <c r="B7" s="28" t="n"/>
+      <c r="C7" s="56" t="n"/>
+      <c r="D7" s="28" t="n"/>
+      <c r="E7" s="56" t="n"/>
+      <c r="F7" s="28" t="n"/>
+      <c r="G7" s="56" t="n"/>
+      <c r="H7" s="53" t="n"/>
+      <c r="I7" s="57" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" s="27">
+      <c r="A8" s="58" t="n">
         <v>45358</v>
       </c>
-      <c r="B8" s="27" t="n"/>
-      <c r="C8" s="41" t="n"/>
-      <c r="D8" s="27" t="n"/>
-      <c r="E8" s="41" t="n"/>
-      <c r="F8" s="27" t="n"/>
-      <c r="G8" s="41" t="n"/>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="41" t="n"/>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="41" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="23">
-      <c r="A9" s="45" t="n">
+      <c r="B8" s="32" t="n"/>
+      <c r="C8" s="59" t="n"/>
+      <c r="D8" s="32" t="n"/>
+      <c r="E8" s="59" t="n"/>
+      <c r="F8" s="32" t="n"/>
+      <c r="G8" s="59" t="n"/>
+      <c r="H8" s="60" t="n"/>
+      <c r="I8" s="61" t="n"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" s="27">
+      <c r="A9" s="67" t="n">
         <v>45359</v>
       </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="39" t="n"/>
-      <c r="D9" s="24" t="n"/>
-      <c r="E9" s="39" t="n"/>
-      <c r="F9" s="24" t="n"/>
-      <c r="G9" s="39" t="n"/>
-      <c r="H9" s="24" t="n"/>
-      <c r="I9" s="39" t="n"/>
-      <c r="J9" s="24" t="n"/>
-      <c r="K9" s="39" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="23">
-      <c r="A10" s="42" t="n">
+      <c r="B9" s="28" t="n"/>
+      <c r="C9" s="56" t="n"/>
+      <c r="D9" s="28" t="n"/>
+      <c r="E9" s="56" t="n"/>
+      <c r="F9" s="28" t="n"/>
+      <c r="G9" s="56" t="n"/>
+      <c r="H9" s="53" t="n"/>
+      <c r="I9" s="57" t="n"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" s="27">
+      <c r="A10" s="62" t="n">
         <v>45360</v>
       </c>
-      <c r="B10" s="43" t="n"/>
-      <c r="C10" s="44" t="n"/>
-      <c r="D10" s="43" t="n"/>
-      <c r="E10" s="44" t="n"/>
-      <c r="F10" s="43" t="n"/>
-      <c r="G10" s="44" t="n"/>
-      <c r="H10" s="43" t="n"/>
-      <c r="I10" s="44" t="n"/>
-      <c r="J10" s="43" t="n"/>
-      <c r="K10" s="44" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="23">
-      <c r="A11" s="42" t="n">
+      <c r="B10" s="63" t="n"/>
+      <c r="C10" s="64" t="n"/>
+      <c r="D10" s="63" t="n"/>
+      <c r="E10" s="64" t="n"/>
+      <c r="F10" s="63" t="n"/>
+      <c r="G10" s="64" t="n"/>
+      <c r="H10" s="65" t="n"/>
+      <c r="I10" s="66" t="n"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="27">
+      <c r="A11" s="62" t="n">
         <v>45361</v>
       </c>
-      <c r="B11" s="43" t="n"/>
-      <c r="C11" s="44" t="n"/>
-      <c r="D11" s="43" t="n"/>
-      <c r="E11" s="44" t="n"/>
-      <c r="F11" s="43" t="n"/>
-      <c r="G11" s="44" t="n"/>
-      <c r="H11" s="43" t="n"/>
-      <c r="I11" s="44" t="n"/>
-      <c r="J11" s="43" t="n"/>
-      <c r="K11" s="44" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="23">
-      <c r="A12" s="40" t="n">
+      <c r="B11" s="63" t="n"/>
+      <c r="C11" s="64" t="n"/>
+      <c r="D11" s="63" t="n"/>
+      <c r="E11" s="64" t="n"/>
+      <c r="F11" s="63" t="n"/>
+      <c r="G11" s="64" t="n"/>
+      <c r="H11" s="65" t="n"/>
+      <c r="I11" s="66" t="n"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="27">
+      <c r="A12" s="58" t="n">
         <v>45362</v>
       </c>
-      <c r="B12" s="27" t="n"/>
-      <c r="C12" s="41" t="n"/>
-      <c r="D12" s="27" t="n"/>
-      <c r="E12" s="41" t="n"/>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="41" t="n"/>
-      <c r="H12" s="27" t="n"/>
-      <c r="I12" s="41" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="41" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="23">
-      <c r="A13" s="45" t="n">
+      <c r="B12" s="32" t="n"/>
+      <c r="C12" s="59" t="n"/>
+      <c r="D12" s="32" t="n"/>
+      <c r="E12" s="59" t="n"/>
+      <c r="F12" s="32" t="n"/>
+      <c r="G12" s="59" t="n"/>
+      <c r="H12" s="60" t="n"/>
+      <c r="I12" s="61" t="n"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="27">
+      <c r="A13" s="67" t="n">
         <v>45363</v>
       </c>
-      <c r="B13" s="24" t="n"/>
-      <c r="C13" s="39" t="n"/>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="39" t="n"/>
-      <c r="F13" s="24" t="n"/>
-      <c r="G13" s="39" t="n"/>
-      <c r="H13" s="24" t="n"/>
-      <c r="I13" s="39" t="n"/>
-      <c r="J13" s="24" t="n"/>
-      <c r="K13" s="39" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="23">
-      <c r="A14" s="40" t="n">
+      <c r="B13" s="28" t="n"/>
+      <c r="C13" s="56" t="n"/>
+      <c r="D13" s="28" t="n"/>
+      <c r="E13" s="56" t="n"/>
+      <c r="F13" s="28" t="n"/>
+      <c r="G13" s="56" t="n"/>
+      <c r="H13" s="53" t="n"/>
+      <c r="I13" s="57" t="n"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="27">
+      <c r="A14" s="58" t="n">
         <v>45364</v>
       </c>
-      <c r="B14" s="27" t="n"/>
-      <c r="C14" s="41" t="n"/>
-      <c r="D14" s="27" t="n"/>
-      <c r="E14" s="41" t="n"/>
-      <c r="F14" s="27" t="n"/>
-      <c r="G14" s="41" t="n"/>
-      <c r="H14" s="27" t="n"/>
-      <c r="I14" s="41" t="n"/>
-      <c r="J14" s="27" t="n"/>
-      <c r="K14" s="41" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="23">
-      <c r="A15" s="45" t="n">
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="59" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="59" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="59" t="n"/>
+      <c r="H14" s="60" t="n"/>
+      <c r="I14" s="61" t="n"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="27">
+      <c r="A15" s="67" t="n">
         <v>45365</v>
       </c>
-      <c r="B15" s="24" t="n"/>
-      <c r="C15" s="39" t="n"/>
-      <c r="D15" s="24" t="n"/>
-      <c r="E15" s="39" t="n"/>
-      <c r="F15" s="24" t="n"/>
-      <c r="G15" s="39" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="39" t="n"/>
-      <c r="J15" s="24" t="n"/>
-      <c r="K15" s="39" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="23">
-      <c r="A16" s="40" t="n">
+      <c r="B15" s="28" t="n"/>
+      <c r="C15" s="56" t="n"/>
+      <c r="D15" s="28" t="n"/>
+      <c r="E15" s="56" t="n"/>
+      <c r="F15" s="28" t="n"/>
+      <c r="G15" s="56" t="n"/>
+      <c r="H15" s="53" t="n"/>
+      <c r="I15" s="57" t="n"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="27">
+      <c r="A16" s="58" t="n">
         <v>45366</v>
       </c>
-      <c r="B16" s="27" t="n"/>
-      <c r="C16" s="41" t="n"/>
-      <c r="D16" s="27" t="n"/>
-      <c r="E16" s="41" t="n"/>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="41" t="n"/>
-      <c r="H16" s="27" t="n"/>
-      <c r="I16" s="41" t="n"/>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="41" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="23">
-      <c r="A17" s="42" t="n">
+      <c r="B16" s="32" t="n"/>
+      <c r="C16" s="59" t="n"/>
+      <c r="D16" s="32" t="n"/>
+      <c r="E16" s="59" t="n"/>
+      <c r="F16" s="32" t="n"/>
+      <c r="G16" s="59" t="n"/>
+      <c r="H16" s="60" t="n"/>
+      <c r="I16" s="61" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="27">
+      <c r="A17" s="62" t="n">
         <v>45367</v>
       </c>
-      <c r="B17" s="43" t="n"/>
-      <c r="C17" s="44" t="n"/>
-      <c r="D17" s="43" t="n"/>
-      <c r="E17" s="44" t="n"/>
-      <c r="F17" s="43" t="n"/>
-      <c r="G17" s="44" t="n"/>
-      <c r="H17" s="43" t="n"/>
-      <c r="I17" s="44" t="n"/>
-      <c r="J17" s="43" t="n"/>
-      <c r="K17" s="44" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="23">
-      <c r="A18" s="42" t="n">
+      <c r="B17" s="63" t="n"/>
+      <c r="C17" s="64" t="n"/>
+      <c r="D17" s="63" t="n"/>
+      <c r="E17" s="64" t="n"/>
+      <c r="F17" s="63" t="n"/>
+      <c r="G17" s="64" t="n"/>
+      <c r="H17" s="65" t="n"/>
+      <c r="I17" s="66" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="27">
+      <c r="A18" s="62" t="n">
         <v>45368</v>
       </c>
-      <c r="B18" s="43" t="n"/>
-      <c r="C18" s="44" t="n"/>
-      <c r="D18" s="43" t="n"/>
-      <c r="E18" s="44" t="n"/>
-      <c r="F18" s="43" t="n"/>
-      <c r="G18" s="44" t="n"/>
-      <c r="H18" s="43" t="n"/>
-      <c r="I18" s="44" t="n"/>
-      <c r="J18" s="43" t="n"/>
-      <c r="K18" s="44" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="23">
-      <c r="A19" s="45" t="n">
+      <c r="B18" s="63" t="n"/>
+      <c r="C18" s="64" t="n"/>
+      <c r="D18" s="63" t="n"/>
+      <c r="E18" s="64" t="n"/>
+      <c r="F18" s="63" t="n"/>
+      <c r="G18" s="64" t="n"/>
+      <c r="H18" s="65" t="n"/>
+      <c r="I18" s="66" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="27">
+      <c r="A19" s="67" t="n">
         <v>45369</v>
       </c>
-      <c r="B19" s="24" t="n"/>
-      <c r="C19" s="39" t="n"/>
-      <c r="D19" s="24" t="n"/>
-      <c r="E19" s="39" t="n"/>
-      <c r="F19" s="24" t="n"/>
-      <c r="G19" s="39" t="n"/>
-      <c r="H19" s="24" t="n"/>
-      <c r="I19" s="39" t="n"/>
-      <c r="J19" s="24" t="n"/>
-      <c r="K19" s="39" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="23">
-      <c r="A20" s="40" t="n">
+      <c r="B19" s="28" t="n"/>
+      <c r="C19" s="56" t="n"/>
+      <c r="D19" s="28" t="n"/>
+      <c r="E19" s="56" t="n"/>
+      <c r="F19" s="28" t="n"/>
+      <c r="G19" s="56" t="n"/>
+      <c r="H19" s="53" t="n"/>
+      <c r="I19" s="57" t="n"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="27">
+      <c r="A20" s="58" t="n">
         <v>45370</v>
       </c>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="41" t="n"/>
-      <c r="D20" s="27" t="n"/>
-      <c r="E20" s="41" t="n"/>
-      <c r="F20" s="27" t="n"/>
-      <c r="G20" s="41" t="n"/>
-      <c r="H20" s="27" t="n"/>
-      <c r="I20" s="41" t="n"/>
-      <c r="J20" s="27" t="n"/>
-      <c r="K20" s="41" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="23">
-      <c r="A21" s="45" t="n">
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="59" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="59" t="n"/>
+      <c r="F20" s="32" t="n"/>
+      <c r="G20" s="59" t="n"/>
+      <c r="H20" s="60" t="n"/>
+      <c r="I20" s="61" t="n"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="27">
+      <c r="A21" s="67" t="n">
         <v>45371</v>
       </c>
-      <c r="B21" s="24" t="n"/>
-      <c r="C21" s="39" t="n"/>
-      <c r="D21" s="24" t="n"/>
-      <c r="E21" s="39" t="n"/>
-      <c r="F21" s="24" t="n"/>
-      <c r="G21" s="39" t="n"/>
-      <c r="H21" s="24" t="n"/>
-      <c r="I21" s="39" t="n"/>
-      <c r="J21" s="24" t="n"/>
-      <c r="K21" s="39" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="23">
-      <c r="A22" s="40" t="n">
+      <c r="B21" s="28" t="n"/>
+      <c r="C21" s="56" t="n"/>
+      <c r="D21" s="28" t="n"/>
+      <c r="E21" s="56" t="n"/>
+      <c r="F21" s="28" t="n"/>
+      <c r="G21" s="56" t="n"/>
+      <c r="H21" s="53" t="n"/>
+      <c r="I21" s="57" t="n"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="27">
+      <c r="A22" s="58" t="n">
         <v>45372</v>
       </c>
-      <c r="B22" s="27" t="n"/>
-      <c r="C22" s="41" t="n"/>
-      <c r="D22" s="27" t="n"/>
-      <c r="E22" s="41" t="n"/>
-      <c r="F22" s="27" t="n"/>
-      <c r="G22" s="41" t="n"/>
-      <c r="H22" s="27" t="n"/>
-      <c r="I22" s="41" t="n"/>
-      <c r="J22" s="27" t="n"/>
-      <c r="K22" s="41" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="23">
-      <c r="A23" s="45" t="n">
+      <c r="B22" s="32" t="n"/>
+      <c r="C22" s="59" t="n"/>
+      <c r="D22" s="32" t="n"/>
+      <c r="E22" s="59" t="n"/>
+      <c r="F22" s="32" t="n"/>
+      <c r="G22" s="59" t="n"/>
+      <c r="H22" s="60" t="n"/>
+      <c r="I22" s="61" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="27">
+      <c r="A23" s="67" t="n">
         <v>45373</v>
       </c>
-      <c r="B23" s="24" t="n"/>
-      <c r="C23" s="39" t="n"/>
-      <c r="D23" s="24" t="n"/>
-      <c r="E23" s="39" t="n"/>
-      <c r="F23" s="24" t="n"/>
-      <c r="G23" s="39" t="n"/>
-      <c r="H23" s="24" t="n"/>
-      <c r="I23" s="39" t="n"/>
-      <c r="J23" s="24" t="n"/>
-      <c r="K23" s="39" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="23">
-      <c r="A24" s="42" t="n">
+      <c r="B23" s="28" t="n"/>
+      <c r="C23" s="56" t="n"/>
+      <c r="D23" s="28" t="n"/>
+      <c r="E23" s="56" t="n"/>
+      <c r="F23" s="28" t="n"/>
+      <c r="G23" s="56" t="n"/>
+      <c r="H23" s="53" t="n"/>
+      <c r="I23" s="57" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="27">
+      <c r="A24" s="62" t="n">
         <v>45374</v>
       </c>
-      <c r="B24" s="43" t="n"/>
-      <c r="C24" s="44" t="n"/>
-      <c r="D24" s="43" t="n"/>
-      <c r="E24" s="44" t="n"/>
-      <c r="F24" s="43" t="n"/>
-      <c r="G24" s="44" t="n"/>
-      <c r="H24" s="43" t="n"/>
-      <c r="I24" s="44" t="n"/>
-      <c r="J24" s="43" t="n"/>
-      <c r="K24" s="44" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="23">
-      <c r="A25" s="42" t="n">
+      <c r="B24" s="63" t="n"/>
+      <c r="C24" s="64" t="n"/>
+      <c r="D24" s="63" t="n"/>
+      <c r="E24" s="64" t="n"/>
+      <c r="F24" s="63" t="n"/>
+      <c r="G24" s="64" t="n"/>
+      <c r="H24" s="65" t="n"/>
+      <c r="I24" s="66" t="n"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="27">
+      <c r="A25" s="62" t="n">
         <v>45375</v>
       </c>
-      <c r="B25" s="43" t="n"/>
-      <c r="C25" s="44" t="n"/>
-      <c r="D25" s="43" t="n"/>
-      <c r="E25" s="44" t="n"/>
-      <c r="F25" s="43" t="n"/>
-      <c r="G25" s="44" t="n"/>
-      <c r="H25" s="43" t="n"/>
-      <c r="I25" s="44" t="n"/>
-      <c r="J25" s="43" t="n"/>
-      <c r="K25" s="44" t="n"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" s="23">
-      <c r="A26" s="40" t="n">
+      <c r="B25" s="63" t="n"/>
+      <c r="C25" s="64" t="n"/>
+      <c r="D25" s="63" t="n"/>
+      <c r="E25" s="64" t="n"/>
+      <c r="F25" s="63" t="n"/>
+      <c r="G25" s="64" t="n"/>
+      <c r="H25" s="65" t="n"/>
+      <c r="I25" s="66" t="n"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="27">
+      <c r="A26" s="58" t="n">
         <v>45376</v>
       </c>
-      <c r="B26" s="27" t="n"/>
-      <c r="C26" s="41" t="n"/>
-      <c r="D26" s="27" t="n"/>
-      <c r="E26" s="41" t="n"/>
-      <c r="F26" s="27" t="n"/>
-      <c r="G26" s="41" t="n"/>
-      <c r="H26" s="27" t="n"/>
-      <c r="I26" s="41" t="n"/>
-      <c r="J26" s="27" t="n"/>
-      <c r="K26" s="41" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" s="23">
-      <c r="A27" s="45" t="n">
+      <c r="B26" s="32" t="n"/>
+      <c r="C26" s="59" t="n"/>
+      <c r="D26" s="32" t="n"/>
+      <c r="E26" s="59" t="n"/>
+      <c r="F26" s="32" t="n"/>
+      <c r="G26" s="59" t="n"/>
+      <c r="H26" s="60" t="n"/>
+      <c r="I26" s="61" t="n"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="27">
+      <c r="A27" s="67" t="n">
         <v>45377</v>
       </c>
-      <c r="B27" s="24" t="n"/>
-      <c r="C27" s="39" t="n"/>
-      <c r="D27" s="24" t="n"/>
-      <c r="E27" s="39" t="n"/>
-      <c r="F27" s="24" t="n"/>
-      <c r="G27" s="39" t="n"/>
-      <c r="H27" s="24" t="n"/>
-      <c r="I27" s="39" t="n"/>
-      <c r="J27" s="24" t="n"/>
-      <c r="K27" s="39" t="n"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" s="23">
-      <c r="A28" s="40" t="n">
+      <c r="B27" s="28" t="n"/>
+      <c r="C27" s="56" t="n"/>
+      <c r="D27" s="28" t="n"/>
+      <c r="E27" s="56" t="n"/>
+      <c r="F27" s="28" t="n"/>
+      <c r="G27" s="56" t="n"/>
+      <c r="H27" s="53" t="n"/>
+      <c r="I27" s="57" t="n"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="27">
+      <c r="A28" s="58" t="n">
         <v>45378</v>
       </c>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="41" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="41" t="n"/>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="41" t="n"/>
-      <c r="H28" s="27" t="n"/>
-      <c r="I28" s="41" t="n"/>
-      <c r="J28" s="27" t="n"/>
-      <c r="K28" s="41" t="n"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" s="23">
-      <c r="A29" s="45" t="n">
+      <c r="B28" s="32" t="n"/>
+      <c r="C28" s="59" t="n"/>
+      <c r="D28" s="32" t="n"/>
+      <c r="E28" s="59" t="n"/>
+      <c r="F28" s="32" t="n"/>
+      <c r="G28" s="59" t="n"/>
+      <c r="H28" s="60" t="n"/>
+      <c r="I28" s="61" t="n"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="27">
+      <c r="A29" s="67" t="n">
         <v>45379</v>
       </c>
-      <c r="B29" s="24" t="n"/>
-      <c r="C29" s="39" t="n"/>
-      <c r="D29" s="24" t="n"/>
-      <c r="E29" s="39" t="n"/>
-      <c r="F29" s="24" t="n"/>
-      <c r="G29" s="39" t="n"/>
-      <c r="H29" s="24" t="n"/>
-      <c r="I29" s="39" t="n"/>
-      <c r="J29" s="24" t="n"/>
-      <c r="K29" s="39" t="n"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" s="23">
-      <c r="A30" s="40" t="n">
+      <c r="B29" s="28" t="n"/>
+      <c r="C29" s="56" t="n"/>
+      <c r="D29" s="28" t="n"/>
+      <c r="E29" s="56" t="n"/>
+      <c r="F29" s="28" t="n"/>
+      <c r="G29" s="56" t="n"/>
+      <c r="H29" s="53" t="n"/>
+      <c r="I29" s="57" t="n"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="27">
+      <c r="A30" s="58" t="n">
         <v>45380</v>
       </c>
-      <c r="B30" s="27" t="n"/>
-      <c r="C30" s="41" t="n"/>
-      <c r="D30" s="27" t="n"/>
-      <c r="E30" s="41" t="n"/>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="41" t="n"/>
-      <c r="H30" s="27" t="n"/>
-      <c r="I30" s="41" t="n"/>
-      <c r="J30" s="27" t="n"/>
-      <c r="K30" s="41" t="n"/>
-    </row>
-    <row r="31" ht="15" customHeight="1" s="23">
-      <c r="A31" s="42" t="n">
+      <c r="B30" s="32" t="n"/>
+      <c r="C30" s="59" t="n"/>
+      <c r="D30" s="32" t="n"/>
+      <c r="E30" s="59" t="n"/>
+      <c r="F30" s="32" t="n"/>
+      <c r="G30" s="59" t="n"/>
+      <c r="H30" s="60" t="n"/>
+      <c r="I30" s="61" t="n"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="27">
+      <c r="A31" s="62" t="n">
         <v>45381</v>
       </c>
-      <c r="B31" s="43" t="n"/>
-      <c r="C31" s="44" t="n"/>
-      <c r="D31" s="43" t="n"/>
-      <c r="E31" s="44" t="n"/>
-      <c r="F31" s="43" t="n"/>
-      <c r="G31" s="44" t="n"/>
-      <c r="H31" s="43" t="n"/>
-      <c r="I31" s="44" t="n"/>
-      <c r="J31" s="43" t="n"/>
-      <c r="K31" s="44" t="n"/>
-    </row>
-    <row r="32" ht="15" customHeight="1" s="23">
-      <c r="A32" s="42" t="n">
+      <c r="B31" s="63" t="n"/>
+      <c r="C31" s="64" t="n"/>
+      <c r="D31" s="63" t="n"/>
+      <c r="E31" s="64" t="n"/>
+      <c r="F31" s="63" t="n"/>
+      <c r="G31" s="64" t="n"/>
+      <c r="H31" s="65" t="n"/>
+      <c r="I31" s="66" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="27">
+      <c r="A32" s="62" t="n">
         <v>45382</v>
       </c>
-      <c r="B32" s="43" t="n"/>
-      <c r="C32" s="44" t="n"/>
-      <c r="D32" s="43" t="n"/>
-      <c r="E32" s="44" t="n"/>
-      <c r="F32" s="43" t="n"/>
-      <c r="G32" s="44" t="n"/>
-      <c r="H32" s="43" t="n"/>
-      <c r="I32" s="44" t="n"/>
-      <c r="J32" s="43" t="n"/>
-      <c r="K32" s="44" t="n"/>
+      <c r="B32" s="63" t="n"/>
+      <c r="C32" s="64" t="n"/>
+      <c r="D32" s="63" t="n"/>
+      <c r="E32" s="64" t="n"/>
+      <c r="F32" s="63" t="n"/>
+      <c r="G32" s="64" t="n"/>
+      <c r="H32" s="65" t="n"/>
+      <c r="I32" s="66" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
